--- a/output_for_paper/sup_table_s7_coef.xlsx
+++ b/output_for_paper/sup_table_s7_coef.xlsx
@@ -1,66 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rozen\Documents\GitHub\mSigHdp_paper_sup_files_x1\output_for_paper\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAC4DDF-2112-4E2E-9AC0-514A7D03BB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="65130" yWindow="5580" windowWidth="38700" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Std..Error</t>
-  </si>
-  <si>
-    <t>t.value</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>sigs_prev_prop</t>
-  </si>
-  <si>
-    <t>ApproachSigProfilerExtractor</t>
-  </si>
-  <si>
-    <t>dataset_nameSBS_set2</t>
-  </si>
-  <si>
-    <t>MASS::rlm(num_seeds_with_hit ~ sigs_prev_prop + Approach + dataset_name, 
-                        data = s7x.sbs)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std..Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Intercept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigs_prev_prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApproachSigProfilerExtractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset_nameSBS_set2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,40 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -404,118 +363,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.140625" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.47512823597052</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.411444711733921</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.8766211069072</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000000000000000000589956495803024</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4.4751282359705202</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.411444711733921</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10.8766211069072</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5.8995649580302395E-19</v>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.95948434903483</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.832302925864604</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.35429227525459</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0204001273817213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.9594843490348299</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.83230292586460397</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.3542922752545898</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.0400127381721301E-2</v>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.63762608363333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.410453051914342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.98980121111413</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000121976058610878</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>-1.6376260836333301</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.410453051914342</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-3.9898012111141301</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.21976058610878E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
-        <v>-0.93180255380812105</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.41941016401086101</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B5" t="n">
+        <v>-0.931802553808121</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.419410164010861</v>
+      </c>
+      <c r="D5" t="n">
         <v>-2.22169759763855</v>
       </c>
-      <c r="E7" s="4">
-        <v>2.8429213514308101E-2</v>
+      <c r="E5" t="n">
+        <v>0.0284292135143081</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>